--- a/data/trans_orig/IMC_inf_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R-Provincia-trans_orig.xlsx
@@ -734,7 +734,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -4102,7 +4102,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -6042,7 +6042,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -10944,7 +10944,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -11374,7 +11374,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -11804,7 +11804,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -14628,7 +14628,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -15042,7 +15042,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C40" s="5" t="n">
@@ -15902,7 +15902,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C46" s="5" t="n">
@@ -16324,7 +16324,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Obsesidad</t>
+          <t>Obesidad</t>
         </is>
       </c>
       <c r="C52" s="5" t="n">

--- a/data/trans_orig/IMC_inf_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC_inf_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2007" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
